--- a/biology/Zoologie/Eurytomidae/Eurytomidae.xlsx
+++ b/biology/Zoologie/Eurytomidae/Eurytomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eurytomidae sont une famille d'insectes hyménoptères apocrites térébrants de la super-famille des Chalcidoidea. Tout comme les Agaonidae, Torymidae, Tanaostigmatidae, cette famille est majoritairement phytophage, une minorité des espèces étant entomophage.
 Ils sont divisés en trois sous-familles : Heimbrinae, Rileyinae et Eurytominae, regroupant 1 200 espèces décrites.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils sont proches des Perilampidae par leur aspect.
 Corps allongé de 1,4 à 6 mm de long entièrement noir, souvent fortement sculpté au niveau du thorax et d'aspect métallique. Quelques espèces sont jaunes.
@@ -549,7 +563,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille relativement grande est avant tout phytophage et présente une grande diversité d'habitats de ses espèces. Le genre Systole se développe aux dépens de graines d'Ombellifères et des Eurytoma (ce genre comportant plus de 250 espèces) se rencontrent sur les graines de légumineuses, mais certains sont entomophages. 
 D'autres sont des ravageurs de cultures céréalières (Tetramesa sp). 
